--- a/Documentation/BOM/TotalBOM_Final.xlsx
+++ b/Documentation/BOM/TotalBOM_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f2632b7fcf4714/Documents/Capstone 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E2D8C3-12D0-42FC-BAB8-60ECAC8D5FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{04CDAD4E-E255-4CFC-8AED-56423E335C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22DCB4B-8AAF-41F0-B516-DAA6F6B94345}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CDA5541-B098-BD48-88EB-683466DC232C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CDA5541-B098-BD48-88EB-683466DC232C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="184">
   <si>
     <t>Name of Item</t>
   </si>
@@ -334,15 +334,9 @@
     <t>Belt</t>
   </si>
   <si>
-    <t>Rubber-Cal Heavy Black Conveyor Belt - Rubber Sheet - 0.3(2Ply) Thick x 10"" Width x 4"" Length - Black (3 pack)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Rubber-Cal</t>
-  </si>
-  <si>
     <t>DC Motor Controller</t>
   </si>
   <si>
@@ -587,6 +581,12 @@
   </si>
   <si>
     <t>2313N36</t>
+  </si>
+  <si>
+    <t>NABOWAN Solid Rubber Sheets,Strips,Rolls 1/16" (.062") Thick x 4" Wide x 120" Long, Thin Neoprene Rubber, Perfect for DIY Gasket Material, Sealing, Liner, Shield, Padding, Mat</t>
+  </si>
+  <si>
+    <t>NABOWAN</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +710,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +767,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAEB1C1E-E9D9-F74F-8B52-987A2AF902D4}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:H56" xr:uid="{FAEB1C1E-E9D9-F74F-8B52-987A2AF902D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAEB1C1E-E9D9-F74F-8B52-987A2AF902D4}" name="Table2" displayName="Table2" ref="A1:H58" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H57" xr:uid="{FAEB1C1E-E9D9-F74F-8B52-987A2AF902D4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60C91063-EB50-F74D-8C54-389E2F780B70}" name="Name of Item" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{BD0718AD-7B49-F94D-9726-567AA1092989}" name="Description" dataDxfId="7"/>
@@ -1079,23 +1082,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F49BBB-CAB8-7C40-A89A-C1364B4E1B71}">
-  <dimension ref="A1:H57"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
     <col min="2" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>47.07</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1283,14 +1289,16 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1362,7 +1370,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -1497,7 +1505,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>72.84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>87</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
@@ -1821,39 +1829,39 @@
         <v>45.95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>20.99</v>
+      </c>
+      <c r="H28" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
-        <v>55.65</v>
-      </c>
-      <c r="H28" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>55.65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>94</v>
@@ -1875,18 +1883,18 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="3">
-        <v>2676</v>
+        <v>2818</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>83</v>
@@ -1895,646 +1903,646 @@
         <v>1</v>
       </c>
       <c r="G30" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="H30" s="15">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2676</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
         <v>7.95</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H31" s="12">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>48.4</v>
+      </c>
+      <c r="H32" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="12">
-        <v>48.4</v>
-      </c>
-      <c r="H31" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="E33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
         <v>9.99</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="12">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.99</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>2818</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="H33" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="3">
-        <v>4865</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="12">
-        <v>45.95</v>
+        <v>5.25</v>
       </c>
       <c r="H34" s="12">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>183.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3">
-        <v>2676</v>
+        <v>4865</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="12">
+        <v>45.95</v>
+      </c>
+      <c r="H35" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>183.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2676</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="3">
         <v>2</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>7.95</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>15.9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="3">
+        <v>14209</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>41.84</v>
+      </c>
+      <c r="H37" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>41.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="3">
-        <v>14209</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="3">
+        <v>18077</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="12">
+        <v>2.34</v>
+      </c>
+      <c r="H38" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="12">
-        <v>41.84</v>
-      </c>
-      <c r="H36" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>41.84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="3">
-        <v>18077</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="3">
-        <v>4</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2.34</v>
-      </c>
-      <c r="H37" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>11.39</v>
+      </c>
+      <c r="H39" s="12">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12">
-        <v>11.39</v>
-      </c>
-      <c r="H38" s="12">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>149.99</v>
+      </c>
+      <c r="H40" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13">
-        <v>149.99</v>
-      </c>
-      <c r="H39" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>149.99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>24.99</v>
+      </c>
+      <c r="H41" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13">
-        <v>24.99</v>
-      </c>
-      <c r="H40" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="C42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>9.99</v>
+      </c>
+      <c r="H42" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13">
-        <v>9.99</v>
-      </c>
-      <c r="H41" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="C43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>39.99</v>
+      </c>
+      <c r="H43" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13">
-        <v>39.99</v>
-      </c>
-      <c r="H42" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>39.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="C44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>6.99</v>
+      </c>
+      <c r="H44" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13">
-        <v>6.99</v>
-      </c>
-      <c r="H43" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-      <c r="G44" s="13">
-        <v>7.95</v>
-      </c>
-      <c r="H44" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="13">
+        <v>7.95</v>
+      </c>
+      <c r="H45" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="7">
         <v>8</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>14.95</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>119.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <v>5.99</v>
+      </c>
+      <c r="H47" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13">
-        <v>5.99</v>
-      </c>
-      <c r="H46" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="D48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="12">
+        <v>11.67</v>
+      </c>
+      <c r="H48" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="3">
-        <v>3</v>
-      </c>
-      <c r="G47" s="12">
-        <v>11.67</v>
-      </c>
-      <c r="H47" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>35.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6</v>
-      </c>
-      <c r="G48" s="12">
-        <v>6.25</v>
-      </c>
-      <c r="H48" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="F49" s="3">
         <v>6</v>
       </c>
       <c r="G49" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="H49" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6</v>
+      </c>
+      <c r="G50" s="12">
         <v>1.75</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="E51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="12">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H51" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>49.949999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B52" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="3">
-        <v>3</v>
-      </c>
-      <c r="G50" s="12">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="H50" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>49.949999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H52" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B53" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H51" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
+        <v>6.97</v>
+      </c>
+      <c r="H53" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12">
-        <v>6.97</v>
-      </c>
-      <c r="H52" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="1">
         <v>4805</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="12">
-        <v>48.95</v>
-      </c>
-      <c r="H53" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>48.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2997</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>83</v>
@@ -2543,89 +2551,116 @@
         <v>1</v>
       </c>
       <c r="G54" s="12">
+        <v>48.95</v>
+      </c>
+      <c r="H54" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>48.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2997</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
         <v>11.95</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.95</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="E56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H56" s="13">
+        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="B57" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="H55" s="13">
-        <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="12">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
         <v>7.24</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <f>Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <f>SUBTOTAL(109,Table2[Quantity])</f>
-        <v>102</v>
-      </c>
-      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <f>SUBTOTAL(109,Table2[Total])</f>
-        <v>1608.8100000000002</v>
+        <v>1579.4000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documentation/BOM/TotalBOM_Final.xlsx
+++ b/Documentation/BOM/TotalBOM_Final.xlsx
@@ -590,25 +590,7 @@
     <t xml:space="preserve">Top-level Controller</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Total Cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Parts Received)</t>
-    </r>
+    <t xml:space="preserve">Total Cost (Parts Received)</t>
   </si>
 </sst>
 </file>
@@ -622,7 +604,7 @@
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -687,12 +669,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -856,11 +832,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,11 +849,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1045,7 +1021,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="38.5"/>
@@ -1110,7 +1086,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.99</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1140,7 +1117,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>47.07</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1170,7 +1148,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.99</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1200,7 +1179,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.98</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1230,7 +1210,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.29</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1260,7 +1241,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.99</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1272,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>0.82</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1320,7 +1303,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>18.98</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1334,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>8.49</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1380,7 +1365,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>71.5</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1410,7 +1396,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>3.96</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1440,7 +1427,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.75</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1470,7 +1458,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>2.99</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1500,7 +1489,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>29.9</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1520,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>72.84</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1560,7 +1551,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>17.88</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1582,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.88</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1620,7 +1613,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>31.99</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1650,7 +1644,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>19.98</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1680,7 +1675,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>2.5</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1710,7 +1706,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.95</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1740,7 +1737,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1770,7 +1768,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>25.9</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1800,7 +1799,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.95</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1830,7 +1830,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1860,7 +1861,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>45.95</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +1892,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>20.99</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +1923,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.95</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1950,7 +1954,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +1985,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,7 +2016,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>96.8</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2040,7 +2047,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.99</v>
       </c>
-      <c r="I33" s="5" t="b">
+      <c r="I33" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2070,7 +2078,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I34" s="5" t="b">
+      <c r="I34" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2100,7 +2109,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>183.8</v>
       </c>
-      <c r="I35" s="5" t="b">
+      <c r="I35" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2130,7 +2140,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>15.9</v>
       </c>
-      <c r="I36" s="5" t="b">
+      <c r="I36" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2160,7 +2171,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>41.84</v>
       </c>
-      <c r="I37" s="5" t="b">
+      <c r="I37" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2190,7 +2202,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.36</v>
       </c>
-      <c r="I38" s="5" t="b">
+      <c r="I38" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2220,7 +2233,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.39</v>
       </c>
-      <c r="I39" s="5" t="b">
+      <c r="I39" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2250,7 +2264,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>149.99</v>
       </c>
-      <c r="I40" s="5" t="b">
+      <c r="I40" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2280,7 +2295,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>24.99</v>
       </c>
-      <c r="I41" s="5" t="b">
+      <c r="I41" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2310,7 +2326,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.99</v>
       </c>
-      <c r="I42" s="5" t="b">
+      <c r="I42" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2340,7 +2357,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.99</v>
       </c>
-      <c r="I43" s="5" t="b">
+      <c r="I43" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2370,7 +2388,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>6.99</v>
       </c>
-      <c r="I44" s="5" t="b">
+      <c r="I44" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2400,7 +2419,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>15.9</v>
       </c>
-      <c r="I45" s="5" t="b">
+      <c r="I45" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2430,7 +2450,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>119.6</v>
       </c>
-      <c r="I46" s="5" t="b">
+      <c r="I46" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2481,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.99</v>
       </c>
-      <c r="I47" s="5" t="b">
+      <c r="I47" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2490,7 +2512,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>35.01</v>
       </c>
-      <c r="I48" s="5" t="b">
+      <c r="I48" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2520,7 +2543,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>37.5</v>
       </c>
-      <c r="I49" s="5" t="b">
+      <c r="I49" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2550,7 +2574,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.5</v>
       </c>
-      <c r="I50" s="5" t="b">
+      <c r="I50" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2580,7 +2605,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>49.95</v>
       </c>
-      <c r="I51" s="5" t="b">
+      <c r="I51" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2610,7 +2636,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.2</v>
       </c>
-      <c r="I52" s="5" t="b">
+      <c r="I52" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2640,7 +2667,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>6.97</v>
       </c>
-      <c r="I53" s="5" t="b">
+      <c r="I53" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2670,7 +2698,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>48.95</v>
       </c>
-      <c r="I54" s="5" t="b">
+      <c r="I54" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2700,7 +2729,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.95</v>
       </c>
-      <c r="I55" s="5" t="b">
+      <c r="I55" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2730,7 +2760,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.5</v>
       </c>
-      <c r="I56" s="5" t="b">
+      <c r="I56" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2760,7 +2791,8 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.24</v>
       </c>
-      <c r="I57" s="5" t="b">
+      <c r="I57" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2806,10 +2838,10 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2902,8 +2934,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="21" t="n">
-        <f aca="false">C7</f>
-        <v>35.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,7 +3044,7 @@
       </c>
       <c r="E14" s="27" t="n">
         <f aca="false">SUM(E3:E13)</f>
-        <v>1337.87</v>
+        <v>1302.02</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOM/TotalBOM_Final.xlsx
+++ b/Documentation/BOM/TotalBOM_Final.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="197">
   <si>
     <t xml:space="preserve">Name of Item</t>
   </si>
@@ -578,6 +581,9 @@
     <t xml:space="preserve">Total Cost</t>
   </si>
   <si>
+    <t xml:space="preserve">Mechanical Contributions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Full BOM</t>
   </si>
   <si>
@@ -587,10 +593,28 @@
     <t xml:space="preserve">Power </t>
   </si>
   <si>
+    <t xml:space="preserve">Arena Supply online and Lowe’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top-level Controller</t>
   </si>
   <si>
     <t xml:space="preserve">Total Cost (Parts Received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous</t>
   </si>
 </sst>
 </file>
@@ -600,9 +624,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -671,12 +695,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -759,7 +789,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -800,7 +830,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,6 +866,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,35 +878,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,7 +1037,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -992,6 +1054,195 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>8.17</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>9.54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>10.22</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>27.93</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>70.74</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="H28">
+            <v>18.42</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="H29">
+            <v>7.32</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30">
+            <v>58.35</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="H31">
+            <v>197.12</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>6.97</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>7.24</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>10.78</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>20.47</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>16.65</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>8.51</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>12.96</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>31.25</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>7.95</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>50.76</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>65.5</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>66.4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>71.7</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>142.16</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>10.88</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>13.09</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>1.97</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>7.88</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>7.48</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>4.47</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>18.94</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>1.48</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>24</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,7 +1272,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="38.5"/>
@@ -1086,7 +1337,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.99</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1117,7 +1368,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>47.07</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1148,7 +1399,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.99</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1179,7 +1430,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.98</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1210,7 +1461,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.29</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1241,7 +1492,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.99</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1272,7 +1523,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>0.82</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1303,7 +1554,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>18.98</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1334,7 +1585,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>8.49</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1365,7 +1616,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>71.5</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1396,7 +1647,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>3.96</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1427,7 +1678,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.75</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1458,7 +1709,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>2.99</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1489,7 +1740,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>29.9</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1520,7 +1771,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>72.84</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1551,7 +1802,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>17.88</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1582,7 +1833,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.88</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1613,7 +1864,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>31.99</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1644,7 +1895,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>19.98</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1675,7 +1926,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>2.5</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1706,7 +1957,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.95</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1737,7 +1988,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1768,7 +2019,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>25.9</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1799,7 +2050,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.95</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1830,7 +2081,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1861,7 +2112,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>45.95</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1892,7 +2143,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>20.99</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1923,7 +2174,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.95</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1954,7 +2205,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1985,7 +2236,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2016,7 +2267,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>96.8</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2047,7 +2298,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.99</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2078,7 +2329,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2109,7 +2360,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>183.8</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2140,7 +2391,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>15.9</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2171,7 +2422,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>41.84</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2202,7 +2453,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.36</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2233,7 +2484,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.39</v>
       </c>
-      <c r="I39" s="5" t="n">
+      <c r="I39" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2264,7 +2515,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>149.99</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2295,7 +2546,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>24.99</v>
       </c>
-      <c r="I41" s="5" t="n">
+      <c r="I41" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2326,7 +2577,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.99</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2357,7 +2608,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>39.99</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2388,7 +2639,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>6.99</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2419,7 +2670,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>15.9</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2450,7 +2701,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>119.6</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2481,7 +2732,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.99</v>
       </c>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2512,7 +2763,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>35.01</v>
       </c>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2543,7 +2794,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>37.5</v>
       </c>
-      <c r="I49" s="5" t="n">
+      <c r="I49" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2574,7 +2825,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.5</v>
       </c>
-      <c r="I50" s="5" t="n">
+      <c r="I50" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2605,7 +2856,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>49.95</v>
       </c>
-      <c r="I51" s="5" t="n">
+      <c r="I51" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2636,7 +2887,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>10.2</v>
       </c>
-      <c r="I52" s="5" t="n">
+      <c r="I52" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2667,7 +2918,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>6.97</v>
       </c>
-      <c r="I53" s="5" t="n">
+      <c r="I53" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2698,7 +2949,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>48.95</v>
       </c>
-      <c r="I54" s="5" t="n">
+      <c r="I54" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2729,7 +2980,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>11.95</v>
       </c>
-      <c r="I55" s="5" t="n">
+      <c r="I55" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2760,7 +3011,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.5</v>
       </c>
-      <c r="I56" s="5" t="n">
+      <c r="I56" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2791,7 +3042,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.24</v>
       </c>
-      <c r="I57" s="5" t="n">
+      <c r="I57" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2835,216 +3086,529 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="E3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <f aca="false">SUM([1]Sheet1!E2:E3) + [1]Sheet1!E9 + [1]Sheet1!G32</f>
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="23" t="n">
         <f aca="false">SUM(Sheet1!H2:H13)</f>
         <v>236.81</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="21" t="n">
-        <f aca="false">C3</f>
+      <c r="D4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <f aca="false">C4</f>
         <v>236.81</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
+      <c r="G4" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <f aca="false">SUM([1]Sheet1!F16:F18)+163.11</f>
+        <v>269.28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C5" s="23" t="n">
         <f aca="false">SUM(Sheet1!H14:H21)</f>
         <v>185.96</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="21" t="n">
-        <f aca="false">C4</f>
+      <c r="E5" s="23" t="n">
+        <f aca="false">C5</f>
         <v>185.96</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22" t="s">
+      <c r="G5" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="22" t="n">
+        <f aca="false">SUM([1]Sheet1!H28:H31)+SUM([1]Sheet1!G33:G35)+[1]Sheet1!E43+[1]Sheet1!F45+[1]Sheet1!F49+[1]Sheet1!F51+[1]Sheet1!F56+SUM([1]Sheet1!D60:D62)</f>
+        <v>753.78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C6" s="25" t="n">
         <v>39.95</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="21" t="n">
-        <f aca="false">C5</f>
+      <c r="E6" s="23" t="n">
+        <f aca="false">C6</f>
         <v>39.95</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="s">
+      <c r="G6" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <f aca="false">[1]Sheet1!F44+[1]Sheet1!F47+[1]Sheet1!F48</f>
+        <v>43.76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C7" s="23" t="n">
         <v>10.5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="21" t="n">
-        <f aca="false">C6</f>
+      <c r="E7" s="23" t="n">
+        <f aca="false">C7</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="G7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="26" t="n">
+        <v>8.97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C8" s="23" t="n">
         <f aca="false">SUM(Sheet1!H24:H25)</f>
         <v>35.85</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E8" s="23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C9" s="23" t="n">
         <f aca="false">SUM(Sheet1!H26:H31)</f>
         <v>100.04</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E9" s="23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="25" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C10" s="23" t="n">
         <f aca="false">SUM(Sheet1!H32:H33)</f>
         <v>106.79</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="21" t="n">
-        <f aca="false">C9</f>
+      <c r="E10" s="23" t="n">
+        <f aca="false">C10</f>
         <v>106.79</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C11" s="23" t="n">
         <f aca="false">SUM(Sheet1!H35:H39)</f>
         <v>262.29</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="21" t="n">
-        <f aca="false">C10</f>
+      <c r="E11" s="23" t="n">
+        <f aca="false">C11</f>
         <v>262.29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="21" t="n">
+      <c r="G11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="30" t="n">
+        <f aca="false">5.78+23.99+SUM([1]Sheet1!B69:B78)</f>
+        <v>126.96</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="23" t="n">
         <f aca="false">SUM(Sheet1!H40:H44)</f>
         <v>231.95</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <f aca="false">C11</f>
+      <c r="D12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="23" t="n">
+        <f aca="false">C12</f>
         <v>231.95</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C13" s="23" t="n">
         <f aca="false">SUM(Sheet1!H45:H47)</f>
         <v>141.49</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="E13" s="23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="s">
+      <c r="G13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="32" t="n">
+        <f aca="false">SUM(H3:H11)</f>
+        <v>1237.65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C14" s="23" t="n">
         <f aca="false">SUM(Sheet1!H48:H57)</f>
         <v>227.77</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E14" s="23" t="n">
+        <f aca="false">C14</f>
+        <v>227.77</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="34" t="n">
+        <f aca="false">SUM(C4:C14)</f>
+        <v>1579.4</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="34" t="n">
+        <f aca="false">SUM(E4:E14)</f>
+        <v>1302.02</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="36" t="n">
+        <f aca="false">C4</f>
+        <v>236.81</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="36" t="n">
+        <f aca="false">C20</f>
+        <v>236.81</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="36" t="n">
+        <f aca="false">C5</f>
+        <v>185.96</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="36" t="n">
+        <f aca="false">C21</f>
+        <v>185.96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <f aca="false">C6+H7</f>
+        <v>48.92</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <f aca="false">C22</f>
+        <v>48.92</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <f aca="false">C7</f>
+        <v>10.5</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <f aca="false">C23</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="23" t="n">
+        <f aca="false">C8</f>
+        <v>35.85</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="23" t="n">
+        <f aca="false">C9</f>
+        <v>100.04</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="23" t="n">
+        <f aca="false">C10</f>
+        <v>106.79</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="23" t="n">
+        <f aca="false">C26</f>
+        <v>106.79</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <f aca="false">C11</f>
+        <v>262.29</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <f aca="false">C27</f>
+        <v>262.29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="23" t="n">
+        <f aca="false">C12</f>
+        <v>231.95</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="23" t="n">
+        <f aca="false">C28</f>
+        <v>231.95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="23" t="n">
         <f aca="false">C13</f>
-        <v>227.77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="s">
+        <v>141.49</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <f aca="false">C14+H3+H6</f>
+        <v>306.43</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="23" t="n">
+        <f aca="false">C30</f>
+        <v>306.43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="23" t="n">
+        <f aca="false">H5</f>
+        <v>753.78</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <f aca="false">H5</f>
+        <v>753.78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="23" t="n">
+        <f aca="false">H4</f>
+        <v>269.28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="23" t="n">
+        <f aca="false">H4</f>
+        <v>269.28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="23" t="n">
+        <f aca="false">H11</f>
+        <v>126.96</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="23" t="n">
+        <f aca="false">H11</f>
+        <v>126.96</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="27" t="n">
-        <f aca="false">SUM(C3:C13)</f>
-        <v>1579.4</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="27" t="n">
-        <f aca="false">SUM(E3:E13)</f>
-        <v>1302.02</v>
+      <c r="C34" s="34" t="n">
+        <f aca="false">SUM(C20:C32)</f>
+        <v>2690.09</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="34" t="n">
+        <f aca="false">SUM(E20:E32)</f>
+        <v>2412.71</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOM/TotalBOM_Final.xlsx
+++ b/Documentation/BOM/TotalBOM_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Received?</t>
+    <t xml:space="preserve">Used?</t>
   </si>
   <si>
     <t xml:space="preserve">Rechargeable 12 V Battery</t>
@@ -789,7 +789,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,7 +810,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -927,14 +927,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1268,11 +1260,11 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="38.5"/>
@@ -1988,8 +1980,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>5.25</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2019,8 +2010,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>25.9</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,8 +2040,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>9.95</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,8 +2070,7 @@
         <f aca="false">Table2[[#This Row],[Quantity]]*Table2[[#This Row],[Price]]</f>
         <v>7.95</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="I26" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3088,7 +3076,7 @@
   </sheetPr>
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3087,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3375,33 +3363,33 @@
       <c r="E19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="23" t="n">
         <f aca="false">C4</f>
         <v>236.81</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="36" t="n">
+      <c r="E20" s="23" t="n">
         <f aca="false">C20</f>
         <v>236.81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="23" t="n">
         <f aca="false">C5</f>
         <v>185.96</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="36" t="n">
+      <c r="E21" s="23" t="n">
         <f aca="false">C21</f>
         <v>185.96</v>
       </c>
